--- a/TrainingExcelReference.xlsx
+++ b/TrainingExcelReference.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>Why learn Selenium</t>
   </si>
@@ -60,12 +61,6 @@
     <t>Automate checkboxes, radio buttons and drop downs</t>
   </si>
   <si>
-    <t>Recap</t>
-  </si>
-  <si>
-    <t>Today's Topics</t>
-  </si>
-  <si>
     <t>Xpath</t>
   </si>
   <si>
@@ -244,6 +239,71 @@
   </si>
   <si>
     <t>driver.getWindowHandle();</t>
+  </si>
+  <si>
+    <t>Day1</t>
+  </si>
+  <si>
+    <t>Day2</t>
+  </si>
+  <si>
+    <t>Today's topics</t>
+  </si>
+  <si>
+    <t>Web Tables</t>
+  </si>
+  <si>
+    <t>Frames</t>
+  </si>
+  <si>
+    <t>Window handling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pop-ups, </t>
+  </si>
+  <si>
+    <t>Prompts and Confirmations handling</t>
+  </si>
+  <si>
+    <t>Absolute Xpath
+Relative Xpath</t>
+  </si>
+  <si>
+    <t>Drop downs</t>
+  </si>
+  <si>
+    <t>Select, and Non Select tags</t>
+  </si>
+  <si>
+    <t>Radio buttons - Checked and UnChecked
+.isSelected(), .getAttribute();</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TR 1</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>&lt;a cityname</t>
+  </si>
+  <si>
+    <t>tr2</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -274,7 +334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +359,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -312,12 +390,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,24 +703,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" customWidth="1"/>
     <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
@@ -653,7 +739,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -662,7 +748,7 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -671,7 +757,7 @@
       </c>
       <c r="H5" s="2"/>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -680,7 +766,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -689,7 +775,7 @@
       </c>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -698,7 +784,7 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -707,7 +793,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -716,33 +802,33 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -751,7 +837,7 @@
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -760,59 +846,102 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="J19" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="H23" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="H24" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>21</v>
+      <c r="H25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -833,130 +962,130 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
         <v>40</v>
-      </c>
-      <c r="N9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -980,20 +1109,20 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
@@ -1001,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
@@ -1012,10 +1141,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
@@ -1023,28 +1152,253 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>65</v>
-      </c>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="5:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="6"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="6"/>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="6"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="6"/>
+      <c r="P8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="6"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="6"/>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="6"/>
+      <c r="R10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="6"/>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="6"/>
+      <c r="P12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="6"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="6"/>
+      <c r="Q13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="6"/>
+      <c r="R14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="6"/>
+      <c r="Q15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="6"/>
+      <c r="R16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TrainingExcelReference.xlsx
+++ b/TrainingExcelReference.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>Why learn Selenium</t>
   </si>
@@ -247,9 +247,6 @@
     <t>Day2</t>
   </si>
   <si>
-    <t>Today's topics</t>
-  </si>
-  <si>
     <t>Web Tables</t>
   </si>
   <si>
@@ -263,10 +260,6 @@
   </si>
   <si>
     <t>Prompts and Confirmations handling</t>
-  </si>
-  <si>
-    <t>Absolute Xpath
-Relative Xpath</t>
   </si>
   <si>
     <t>Drop downs</t>
@@ -304,6 +297,49 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>Day3</t>
+  </si>
+  <si>
+    <t>Day 4</t>
+  </si>
+  <si>
+    <t>Drag and Drop</t>
+  </si>
+  <si>
+    <t>Mouse hovering and Keyboard Interactions</t>
+  </si>
+  <si>
+    <t>Parameterization using Excel (Read)</t>
+  </si>
+  <si>
+    <t>Absolute Xpath
+Relative Xpath
+Descendants, Parents, Siblings</t>
+  </si>
+  <si>
+    <t>Descendants by using space</t>
+  </si>
+  <si>
+    <t>moveto, movebyoffset, movetoelement, drag and drop</t>
+  </si>
+  <si>
+    <t>mouse hover is actually movetoelement and staying there without taking any other action like clicking etc
+Keyboard Interactions - press Ctrl, Enter, Ctrl + a
+Mouse Right Click or Context Click</t>
+  </si>
+  <si>
+    <t>get row count
+get col count
+get cell numeric value
+get cell value</t>
+  </si>
+  <si>
+    <t>Data Driven Framework
+KeyWord driven framework
+Hybrid framework
+Modular framework</t>
   </si>
 </sst>
 </file>
@@ -390,18 +426,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,245 +747,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="48.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="9" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="9"/>
+    <col min="8" max="8" width="49.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="39.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="L2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="L3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" t="s">
+      <c r="H4" s="7"/>
+      <c r="I4" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="L4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="L5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" t="s">
+      <c r="C7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" t="s">
+      <c r="H12" s="7"/>
+      <c r="I12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" t="s">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" t="s">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="2" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="2" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="2" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H26" s="2" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="7" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H27" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -961,10 +1040,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1001,7 +1080,7 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="L7" t="s">
@@ -1047,14 +1126,14 @@
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1069,7 +1148,7 @@
       </c>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1079,7 +1158,7 @@
       </c>
     </row>
     <row r="24" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1118,10 +1197,10 @@
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1191,214 +1270,214 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E3" s="6"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="5:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E5" s="4"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="5:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="8" t="s">
+    </row>
+    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="P8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E5" s="6"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="6"/>
-      <c r="O7" t="s">
+    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="Q9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="6"/>
-      <c r="P8" t="s">
+    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="R10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E9" s="6"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="6"/>
-      <c r="Q9" t="s">
+    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="Q11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="P12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="6"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="6"/>
-      <c r="R10" t="s">
+    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="4"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="Q13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="4"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="R14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="4"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="Q15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="4"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="R16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="6"/>
-      <c r="Q11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="6"/>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="6"/>
-      <c r="Q13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="6"/>
-      <c r="R14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="6"/>
-      <c r="Q15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E16" s="6"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="6"/>
-      <c r="R16" t="s">
-        <v>94</v>
-      </c>
-    </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E17" s="6"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="6"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
